--- a/data/trans_orig/ED_ADU-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/ED_ADU-Estudios-trans_orig.xlsx
@@ -704,40 +704,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>54.29490947839567</v>
+        <v>54.20230586361281</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>57.22931044508677</v>
+        <v>57.19527232008279</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>58.48507016287768</v>
+        <v>58.32800385408454</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>60.14700931777705</v>
+        <v>60.17177924174101</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>58.33251607951482</v>
+        <v>58.27448340096247</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>60.06930216686732</v>
+        <v>60.06784180288046</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>62.96142750170244</v>
+        <v>62.98459704187717</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>67.39959133206243</v>
+        <v>67.40642676164792</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>56.76891170061414</v>
+        <v>56.85184501238979</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>59.17310966170977</v>
+        <v>59.1406614518343</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>61.32336401608501</v>
+        <v>61.31358956691918</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>64.65823377293241</v>
+        <v>64.8483025490077</v>
       </c>
     </row>
     <row r="6">
@@ -748,40 +748,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>56.55090204522519</v>
+        <v>56.58910027646959</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>59.56850289674669</v>
+        <v>59.50574113587127</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>61.02916727732251</v>
+        <v>60.92561369199076</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>63.67350400404774</v>
+        <v>63.62173847868482</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>60.14797337341263</v>
+        <v>60.24555249411972</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>61.8806466093851</v>
+        <v>61.9654536072762</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>65.05168798804834</v>
+        <v>65.07348433394826</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>69.49591876790626</v>
+        <v>69.45659072228156</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>58.28371502673559</v>
+        <v>58.31668379425779</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>60.64537432077382</v>
+        <v>60.62530236155452</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>62.9484593301741</v>
+        <v>62.99825866918504</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>66.75079037221961</v>
+        <v>66.81724886391329</v>
       </c>
     </row>
     <row r="7">
@@ -817,7 +817,7 @@
         <v>42.55962214612299</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>45.00151668121869</v>
+        <v>45.00151668121867</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>36.99286386126107</v>
@@ -829,7 +829,7 @@
         <v>42.25826459851817</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>45.00424450240897</v>
+        <v>45.00424450240896</v>
       </c>
     </row>
     <row r="8">
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>36.37386934125433</v>
+        <v>36.39820954988187</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>38.31394458256938</v>
+        <v>38.36367087434097</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>41.28408913497856</v>
+        <v>41.28940779469868</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>44.12042896053689</v>
+        <v>44.06457118381276</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>36.17891621726082</v>
+        <v>36.16482812544412</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>38.04115883033519</v>
+        <v>38.13181748188803</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>41.90180227950591</v>
+        <v>41.8506848530462</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>44.21993062342079</v>
+        <v>44.280059272597</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>36.47968938162492</v>
+        <v>36.50270972053735</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>38.40795577671689</v>
+        <v>38.41733988218907</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>41.67815582427552</v>
+        <v>41.79478237886482</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>44.46082171970958</v>
+        <v>44.4502172275047</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>37.72270568479232</v>
+        <v>37.79269071315608</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>39.6637280635721</v>
+        <v>39.70147444031313</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>42.64038565321754</v>
+        <v>42.67180336805038</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>45.87876899644618</v>
+        <v>45.8998068607265</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>37.6088266286633</v>
+        <v>37.51499157358674</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>39.45516570371748</v>
+        <v>39.4926242619844</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>43.27374725065347</v>
+        <v>43.3352454630279</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>45.70555855491491</v>
+        <v>45.75645005713483</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>37.47210437838617</v>
+        <v>37.51225230652178</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>39.41979519012693</v>
+        <v>39.40115801867672</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>42.74682195292457</v>
+        <v>42.80842221760281</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>45.57206814967888</v>
+        <v>45.56148999890856</v>
       </c>
     </row>
     <row r="10">
@@ -953,7 +953,7 @@
         <v>40.52865606991391</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>45.22973821731283</v>
+        <v>45.22973821731282</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>39.37639763794376</v>
@@ -965,7 +965,7 @@
         <v>41.59538077630859</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>46.82628886774237</v>
+        <v>46.82628886774236</v>
       </c>
     </row>
     <row r="11">
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>39.29257984073862</v>
+        <v>39.22328367509473</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>39.21877085650537</v>
+        <v>39.22620291518729</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>41.41595689082502</v>
+        <v>41.49701986161313</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>47.16027068483817</v>
+        <v>47.14489680930171</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>36.93032769632611</v>
+        <v>36.99870083815556</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>36.84822432662352</v>
+        <v>36.82363750490877</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>39.3374657399617</v>
+        <v>39.32771173958583</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>44.18384017464067</v>
+        <v>44.26588670567825</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>38.54050559269073</v>
+        <v>38.52068634840403</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>38.37959739849981</v>
+        <v>38.39970103254258</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>40.76779923845913</v>
+        <v>40.77066866058091</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>45.9233328089669</v>
+        <v>46.02014611103449</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>41.75180350164064</v>
+        <v>41.71867353600651</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>41.83304808548034</v>
+        <v>41.72622255786856</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>44.02627789339789</v>
+        <v>43.92137299157971</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>49.8525696035455</v>
+        <v>49.91688053869058</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>39.33827444313569</v>
+        <v>39.28097999943262</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>39.37662815453298</v>
+        <v>39.33490265229796</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>41.79640053064802</v>
+        <v>41.79904682462308</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>46.37299926828507</v>
+        <v>46.37273110699769</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>40.27041245375156</v>
+        <v>40.26867414461969</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>40.13873872380056</v>
+        <v>40.18075045647628</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>42.49094236392825</v>
+        <v>42.47904886038867</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>47.60968213104518</v>
+        <v>47.73971970066309</v>
       </c>
     </row>
     <row r="13">
@@ -1077,7 +1077,7 @@
         <v>46.03612183005674</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>48.50475850315245</v>
+        <v>48.50475850315246</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>45.77827905412515</v>
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>42.78194473705052</v>
+        <v>42.82472237840304</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>44.10138440700841</v>
+        <v>44.15421011760203</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>45.41498269259963</v>
+        <v>45.44307001012162</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>47.79171671240955</v>
+        <v>47.73092147113753</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>45.14446792638172</v>
+        <v>45.15223438989366</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>46.38791986687109</v>
+        <v>46.39418894023694</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>47.60966797544746</v>
+        <v>47.58702560575507</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>49.60404499094153</v>
+        <v>49.6260508690614</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>44.13917326168215</v>
+        <v>44.23417865194725</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>45.45083172365727</v>
+        <v>45.48088903915298</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>46.69940122155423</v>
+        <v>46.79161562224325</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>48.93868353456307</v>
+        <v>48.92243014001749</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>44.01355725993805</v>
+        <v>44.0380482463224</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>45.33781660703555</v>
+        <v>45.41926337820582</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>46.61587623265066</v>
+        <v>46.68565390217035</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>49.25506371952634</v>
+        <v>49.18030292025818</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>46.39259333682042</v>
+        <v>46.44170202555343</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>47.68931345418056</v>
+        <v>47.61287675485577</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>48.92633978364047</v>
+        <v>48.99645778712519</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>50.79648682524833</v>
+        <v>50.85673152352644</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>45.03694791913428</v>
+        <v>45.05509725517645</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>46.3855276385646</v>
+        <v>46.38712489598593</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>47.65934160278078</v>
+        <v>47.6284440509205</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>49.86601687132986</v>
+        <v>49.85445006071093</v>
       </c>
     </row>
     <row r="16">
